--- a/dengue data converted /2006_dengue_extracted.xlsx
+++ b/dengue data converted /2006_dengue_extracted.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\4. FS\Data analysis\Extracted Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DCB189-5334-4DB5-B053-9C0A16A665BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1473427-7745-A444-BA9D-560E1D05F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -825,13 +826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03875884-0701-48F4-A84D-4B964112F726}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="292" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,7 +918,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -963,7 +962,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>40</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>42</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>43</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>45</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>46</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>47</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>50</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>52</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>54</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>55</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>56</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>57</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>58</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>60</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>61</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>62</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>63</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>64</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>65</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>66</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>67</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>68</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>69</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>70</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>71</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>72</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>74</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>75</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>76</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>77</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>78</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>79</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>81</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>82</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>83</v>
       </c>
@@ -3955,7 +3954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>84</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>85</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>86</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>87</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>88</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>90</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>91</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>92</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>94</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>96</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>97</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>98</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>99</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>100</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>101</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>102</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>103</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>104</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>105</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>106</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>107</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>108</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>109</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>110</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>111</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>112</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>113</v>
       </c>
@@ -5278,4 +5277,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA722C-32C0-944B-AD85-9A786964BA46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>